--- a/DatabaseTables.xlsx
+++ b/DatabaseTables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCY\VTC_LWL_CDCA_1D\21_ITP4924\EA\Project\OldVersion\PCY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCY\VTC_LWL_CDCA_1D\21_ITP4924\EA\Project\FTR_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECDEC2-9801-443E-AA00-15E70DFE8F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801A56A-F417-4D1B-BC4A-ED393B704F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27844C2B-C011-4E2A-9EE1-42C58012AACD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Cinemas" sheetId="2" r:id="rId2"/>
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
-    <sheet name="Category" sheetId="4" r:id="rId4"/>
+    <sheet name="M_Category" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>User</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>uid</t>
-  </si>
-  <si>
     <t>int unsigned</t>
   </si>
   <si>
@@ -98,106 +95,163 @@
     <t>u_phone</t>
   </si>
   <si>
-    <t>int(8)</t>
-  </si>
-  <si>
     <t>u_person</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>created_on</t>
+  </si>
+  <si>
+    <t>Default current_timestamp</t>
+  </si>
+  <si>
+    <t>Cinemas</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>c_name</t>
+  </si>
+  <si>
+    <t>c_address</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>cw_cinema'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>r_email</t>
+  </si>
+  <si>
+    <t>r_phone</t>
+  </si>
+  <si>
+    <t>r_category</t>
+  </si>
+  <si>
+    <t>r_body</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>cw_report'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw_user'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw_m_category'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc_definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>last_login</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>created_on</t>
-  </si>
-  <si>
-    <t>Default current_timestamp</t>
-  </si>
-  <si>
-    <t>Cinemas</t>
-  </si>
-  <si>
-    <t>cid</t>
-  </si>
-  <si>
-    <t>c_name</t>
-  </si>
-  <si>
-    <t>c_address</t>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
-    <t>fid</t>
-  </si>
-  <si>
-    <t>Foreign</t>
-  </si>
-  <si>
-    <t>cw_cinema'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>rid</t>
-  </si>
-  <si>
-    <t>r_email</t>
-  </si>
-  <si>
-    <t>r_phone</t>
-  </si>
-  <si>
-    <t>r_category</t>
-  </si>
-  <si>
-    <t>r_body</t>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-  </si>
-  <si>
-    <t>Yes / No</t>
-  </si>
-  <si>
-    <t>cw_report'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cw_user'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>cw_category'</t>
-  </si>
-  <si>
-    <t>cat_id</t>
-  </si>
-  <si>
-    <t>cat_level</t>
-  </si>
-  <si>
-    <t>varchar(3)</t>
-  </si>
-  <si>
-    <t>definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign(cw_user.id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constraints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -250,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +315,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,16 +654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -622,12 +679,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -637,173 +694,171 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="1"/>
     </row>
   </sheetData>
@@ -823,12 +878,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3EB856-9F31-4754-B61A-A592E9CF5C1C}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -846,16 +902,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -873,94 +929,115 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F6:G6"/>
+  <mergeCells count="7">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47594AE-672A-453E-8C7A-E6EBADA34949}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -982,19 +1059,20 @@
     <col min="3" max="3" width="12.19921875" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="8" max="8" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
@@ -1013,179 +1091,169 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D1BE64-4E32-495D-822A-0AC2C0A9AA99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3D6ECE-DD2B-4B85-B0CC-2AB701314404}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
     <col min="4" max="4" width="14.296875" customWidth="1"/>
     <col min="5" max="5" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1203,66 +1271,68 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
     </row>
   </sheetData>
@@ -1275,6 +1345,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DatabaseTables.xlsx
+++ b/DatabaseTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCY\VTC_LWL_CDCA_1D\21_ITP4924\EA\Project\FTR_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801A56A-F417-4D1B-BC4A-ED393B704F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C1978C-05C5-426B-BBB6-4CB50682A4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27844C2B-C011-4E2A-9EE1-42C58012AACD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{27844C2B-C011-4E2A-9EE1-42C58012AACD}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>User</t>
   </si>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>mc_definition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(250)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B523697E-98A7-491E-900B-C80CA207BE5A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +798,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -863,11 +859,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
@@ -875,6 +866,11 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1092,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
@@ -1128,7 +1124,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1170,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="1"/>
@@ -1195,18 +1191,18 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1230,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3D6ECE-DD2B-4B85-B0CC-2AB701314404}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1322,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1345,5 +1341,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DatabaseTables.xlsx
+++ b/DatabaseTables.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCY\VTC_LWL_CDCA_1D\21_ITP4924\EA\Project\FTR_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C1978C-05C5-426B-BBB6-4CB50682A4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C951385-4020-469C-ACC0-B6259E23D169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{27844C2B-C011-4E2A-9EE1-42C58012AACD}"/>
+    <workbookView xWindow="9020" yWindow="1720" windowWidth="10160" windowHeight="7920" firstSheet="1" activeTab="1" xr2:uid="{27844C2B-C011-4E2A-9EE1-42C58012AACD}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Cinemas" sheetId="2" r:id="rId2"/>
-    <sheet name="Reports" sheetId="3" r:id="rId3"/>
-    <sheet name="M_Category" sheetId="4" r:id="rId4"/>
+    <sheet name="Facility" sheetId="5" r:id="rId3"/>
+    <sheet name="Reports" sheetId="3" r:id="rId4"/>
+    <sheet name="M_Category" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>User</t>
   </si>
@@ -247,6 +248,34 @@
   </si>
   <si>
     <t>Choices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw_facility'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +340,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,7 +671,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -650,16 +685,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -677,10 +712,10 @@
       <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -701,8 +736,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
@@ -719,8 +754,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -735,8 +770,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -751,10 +786,10 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -769,10 +804,10 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -787,8 +822,8 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -803,8 +838,8 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -819,8 +854,8 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -835,8 +870,10 @@
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -851,10 +888,10 @@
       <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
     </row>
   </sheetData>
@@ -880,9 +917,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3EB856-9F31-4754-B61A-A592E9CF5C1C}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -898,16 +935,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -925,10 +962,10 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,35 +986,35 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -985,55 +1022,74 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="8">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,6 +1097,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140D1708-E83D-402D-8C1C-DDF3F1A7AD79}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47594AE-672A-453E-8C7A-E6EBADA34949}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1059,16 +1256,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
@@ -1087,10 +1284,10 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1308,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1129,10 +1326,10 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
@@ -1147,10 +1344,10 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
@@ -1165,10 +1362,10 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
@@ -1183,8 +1380,8 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
@@ -1199,8 +1396,8 @@
       <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1222,12 +1419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3D6ECE-DD2B-4B85-B0CC-2AB701314404}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1240,16 +1437,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1267,10 +1464,10 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1291,8 +1488,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,10 +1506,10 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1327,8 +1524,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
     </row>
   </sheetData>
